--- a/PhoenixCI/Excel_Template/48040.xlsx
+++ b/PhoenixCI/Excel_Template/48040.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F21668A-CE6D-4235-BE59-542A20EA1F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52488CEE-B077-425A-B916-BDA2B3E1FAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3195" yWindow="45" windowWidth="12555" windowHeight="11220" activeTab="1"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C356-4C95-8208-7C12857C7CE1}"/>
+              <c16:uniqueId val="{00000000-DB3C-470F-BBAF-002709824C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1445,7 +1445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C356-4C95-8208-7C12857C7CE1}"/>
+              <c16:uniqueId val="{00000001-DB3C-470F-BBAF-002709824C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1458,11 +1458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425324920"/>
+        <c:axId val="338097296"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425324920"/>
+        <c:axId val="338097296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425324920"/>
+        <c:crossAx val="338097296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1593,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6A0-4C13-A598-1A8B021ECEE8}"/>
+              <c16:uniqueId val="{00000000-A5B7-4C0C-A485-D99A1BE78FE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1640,7 +1640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6A0-4C13-A598-1A8B021ECEE8}"/>
+              <c16:uniqueId val="{00000001-A5B7-4C0C-A485-D99A1BE78FE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425328200"/>
+        <c:axId val="338098280"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425328200"/>
+        <c:axId val="338098280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425328200"/>
+        <c:crossAx val="338098280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A8D-4E92-842D-837C589B126D}"/>
+              <c16:uniqueId val="{00000000-E041-4D17-9714-353B3DDB83A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1835,7 +1835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A8D-4E92-842D-837C589B126D}"/>
+              <c16:uniqueId val="{00000001-E041-4D17-9714-353B3DDB83A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1848,11 +1848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425322952"/>
+        <c:axId val="338103200"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425322952"/>
+        <c:axId val="338103200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425322952"/>
+        <c:crossAx val="338103200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B294-43FE-93FD-E58F96A8BB50}"/>
+              <c16:uniqueId val="{00000000-357E-4701-BD3D-2B073E83A25C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,7 +2030,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B294-43FE-93FD-E58F96A8BB50}"/>
+              <c16:uniqueId val="{00000001-357E-4701-BD3D-2B073E83A25C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2043,11 +2043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425739792"/>
+        <c:axId val="338661112"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425739792"/>
+        <c:axId val="338661112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425739792"/>
+        <c:crossAx val="338661112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,7 +2189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A15-4EE6-B0CD-7DE8838A0637}"/>
+              <c16:uniqueId val="{00000000-57CB-46C0-9D1A-AE37A843652F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2239,7 +2239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A15-4EE6-B0CD-7DE8838A0637}"/>
+              <c16:uniqueId val="{00000001-57CB-46C0-9D1A-AE37A843652F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2252,11 +2252,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425737496"/>
+        <c:axId val="338667344"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425737496"/>
+        <c:axId val="338667344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425737496"/>
+        <c:crossAx val="338667344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2340,7 +2340,7 @@
         <xdr:cNvPr id="4384" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CEFC79-24D8-4A76-BF1D-DBF5F50EDFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD377B9-8CFB-4B93-BBC5-1061A09BAE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2378,7 @@
         <xdr:cNvPr id="4385" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F867FA-9D6F-4FCF-9080-3A04A0F5D11A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFB76A-C31D-47A4-9A4C-00A487B7CA5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="4386" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACC760B-6316-439C-98A6-2ED3D135E050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39B4F96-7A0F-4831-B232-204763C3A208}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="4387" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9795BBEF-6542-45D2-9C60-162F21964492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9552E44A-611B-41DE-B5C6-35FD417909B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2492,7 @@
         <xdr:cNvPr id="4388" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A083CE-14F0-4403-B1A6-470E7390CF61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5953F8-9713-4CC2-9C00-A7A3BF17D68A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/PhoenixCI/Excel_Template/48040.xlsx
+++ b/PhoenixCI/Excel_Template/48040.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52488CEE-B077-425A-B916-BDA2B3E1FAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F21668A-CE6D-4235-BE59-542A20EA1F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3195" yWindow="45" windowWidth="12555" windowHeight="11220" activeTab="1"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB3C-470F-BBAF-002709824C5A}"/>
+              <c16:uniqueId val="{00000000-C356-4C95-8208-7C12857C7CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1445,7 +1445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB3C-470F-BBAF-002709824C5A}"/>
+              <c16:uniqueId val="{00000001-C356-4C95-8208-7C12857C7CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1458,11 +1458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="338097296"/>
+        <c:axId val="425324920"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338097296"/>
+        <c:axId val="425324920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338097296"/>
+        <c:crossAx val="425324920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1593,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5B7-4C0C-A485-D99A1BE78FE0}"/>
+              <c16:uniqueId val="{00000000-B6A0-4C13-A598-1A8B021ECEE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1640,7 +1640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5B7-4C0C-A485-D99A1BE78FE0}"/>
+              <c16:uniqueId val="{00000001-B6A0-4C13-A598-1A8B021ECEE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="338098280"/>
+        <c:axId val="425328200"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338098280"/>
+        <c:axId val="425328200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338098280"/>
+        <c:crossAx val="425328200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1788,7 +1788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E041-4D17-9714-353B3DDB83A1}"/>
+              <c16:uniqueId val="{00000000-3A8D-4E92-842D-837C589B126D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1835,7 +1835,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E041-4D17-9714-353B3DDB83A1}"/>
+              <c16:uniqueId val="{00000001-3A8D-4E92-842D-837C589B126D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1848,11 +1848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="338103200"/>
+        <c:axId val="425322952"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338103200"/>
+        <c:axId val="425322952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338103200"/>
+        <c:crossAx val="425322952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-357E-4701-BD3D-2B073E83A25C}"/>
+              <c16:uniqueId val="{00000000-B294-43FE-93FD-E58F96A8BB50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,7 +2030,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-357E-4701-BD3D-2B073E83A25C}"/>
+              <c16:uniqueId val="{00000001-B294-43FE-93FD-E58F96A8BB50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2043,11 +2043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="338661112"/>
+        <c:axId val="425739792"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338661112"/>
+        <c:axId val="425739792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338661112"/>
+        <c:crossAx val="425739792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,7 +2189,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57CB-46C0-9D1A-AE37A843652F}"/>
+              <c16:uniqueId val="{00000000-2A15-4EE6-B0CD-7DE8838A0637}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2239,7 +2239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-57CB-46C0-9D1A-AE37A843652F}"/>
+              <c16:uniqueId val="{00000001-2A15-4EE6-B0CD-7DE8838A0637}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2252,11 +2252,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="338667344"/>
+        <c:axId val="425737496"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338667344"/>
+        <c:axId val="425737496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338667344"/>
+        <c:crossAx val="425737496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2340,7 +2340,7 @@
         <xdr:cNvPr id="4384" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD377B9-8CFB-4B93-BBC5-1061A09BAE7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CEFC79-24D8-4A76-BF1D-DBF5F50EDFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2378,7 @@
         <xdr:cNvPr id="4385" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBFB76A-C31D-47A4-9A4C-00A487B7CA5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F867FA-9D6F-4FCF-9080-3A04A0F5D11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="4386" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39B4F96-7A0F-4831-B232-204763C3A208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACC760B-6316-439C-98A6-2ED3D135E050}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="4387" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9552E44A-611B-41DE-B5C6-35FD417909B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9795BBEF-6542-45D2-9C60-162F21964492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2492,7 @@
         <xdr:cNvPr id="4388" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5953F8-9713-4CC2-9C00-A7A3BF17D68A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A083CE-14F0-4403-B1A6-470E7390CF61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
